--- a/Offline/BusinessManagement/CourseMaterialDetails.xlsx
+++ b/Offline/BusinessManagement/CourseMaterialDetails.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA30415-CFCA-47E9-9D91-DC618D5FEAA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ANUPAM-SEN" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>HOD</t>
   </si>
@@ -83,12 +84,18 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>HOD Remarks</t>
+  </si>
+  <si>
+    <t>Faculty Remarks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -210,14 +217,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -255,7 +265,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -327,7 +337,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -500,24 +510,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="85" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
@@ -525,7 +537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -539,19 +551,24 @@
         <v>20</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="H3" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -572,8 +589,9 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -594,8 +612,9 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="D6" s="3"/>
@@ -607,8 +626,9 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="D7" s="3"/>
@@ -620,8 +640,9 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -634,8 +655,9 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -648,8 +670,9 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -662,8 +685,9 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -676,8 +700,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -690,8 +715,9 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -704,8 +730,9 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -718,8 +745,9 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -732,8 +760,9 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -746,8 +775,9 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -760,8 +790,9 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -774,8 +805,9 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -788,8 +820,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -802,8 +835,9 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -816,8 +850,9 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -830,8 +865,9 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -844,8 +880,9 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -858,8 +895,9 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -872,8 +910,9 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -886,8 +925,9 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -900,8 +940,9 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -914,8 +955,9 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -928,8 +970,9 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -942,11 +985,12 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-    <hyperlink ref="C5" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
@@ -954,22 +998,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="87.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="2"/>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -982,7 +1029,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -991,7 +1038,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1005,14 +1052,19 @@
         <v>20</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1029,7 +1081,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="14.45" customHeight="1">
+    <row r="5" spans="1:8" ht="14.4" customHeight="1">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1046,7 +1098,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="14.45" customHeight="1">
+    <row r="6" spans="1:8" ht="14.4" customHeight="1">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -1063,7 +1115,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="14.45" customHeight="1">
+    <row r="7" spans="1:8" ht="14.4" customHeight="1">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -1080,7 +1132,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="14.45" customHeight="1">
+    <row r="8" spans="1:8" ht="14.4" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="13"/>
@@ -1089,7 +1141,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="14.45" customHeight="1">
+    <row r="9" spans="1:8" ht="14.4" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="14"/>
@@ -1098,7 +1150,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="14.45" customHeight="1">
+    <row r="10" spans="1:8" ht="14.4" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="12"/>
@@ -1107,7 +1159,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="14.45" customHeight="1">
+    <row r="11" spans="1:8" ht="14.4" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="13"/>
@@ -1116,7 +1168,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="14.45" customHeight="1">
+    <row r="12" spans="1:8" ht="14.4" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1125,7 +1177,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="14.45" customHeight="1">
+    <row r="13" spans="1:8" ht="14.4" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1134,7 +1186,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1143,7 +1195,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1152,7 +1204,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1262,34 +1314,34 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-    <hyperlink ref="C5" r:id="rId2"/>
-    <hyperlink ref="C6" r:id="rId3"/>
-    <hyperlink ref="C7" r:id="rId4"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Offline/BusinessManagement/CourseMaterialDetails.xlsx
+++ b/Offline/BusinessManagement/CourseMaterialDetails.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA30415-CFCA-47E9-9D91-DC618D5FEAA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C76A81-40FC-4F98-A09F-34F6AB0C11D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,12 +13,23 @@
     <sheet name="SUJATA-MUKHERJEE" sheetId="3" r:id="rId3"/>
     <sheet name="DEBOLINA-SEN" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="348">
   <si>
     <t>HOD</t>
   </si>
@@ -32,71 +43,1060 @@
     <t>Anupam Sen</t>
   </si>
   <si>
-    <t>6th-12th Notes</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/drive/folders/1tsMqsp_7-GeuaY5fYWYtArTh7PTZ_Kye?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/drive/folders/1h9ZJLCr878sq6-4O9kJPZ29qLp5y4yQV</t>
-  </si>
-  <si>
-    <t>Class/Board</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t xml:space="preserve">Faculty </t>
   </si>
   <si>
     <t>Approval (Y/N)</t>
   </si>
   <si>
-    <t>https://drive.google.com/drive/folders/1Nmm6DrCbKHleDJd6LiAAcegGn_x39VYR?usp=sharing</t>
-  </si>
-  <si>
-    <t>NEET CRASH COURSE</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/drive/folders/1sGAXkpIIQOwrNAXsaW-nlZUjdH88NuPs</t>
-  </si>
-  <si>
-    <t>JEE NEET MOCK PAPERS</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/drive/folders/1FHlGuABMZk2qx4HrJOIodQsuToX9l71P</t>
-  </si>
-  <si>
-    <t>JEE/NEET PPTs</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/drive/folders/1vye5wOwfmu3LmE_EFkbxHVSW222M7bMT</t>
-  </si>
-  <si>
     <t>Subroto Ghosh</t>
   </si>
   <si>
-    <t>JEE MAINS/NEET QUESTION</t>
-  </si>
-  <si>
     <t>HOD Approval(Y/N)</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>HOD Remarks</t>
   </si>
   <si>
     <t>Faculty Remarks</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>NEET &amp; IIT Crash Course  Physics</t>
+  </si>
+  <si>
+    <t>NEET &amp; IIT Crash Course  Chemistry</t>
+  </si>
+  <si>
+    <t>IIT Crash Course  Maths</t>
+  </si>
+  <si>
+    <t>NEET &amp; IIT Crash Course  Biology</t>
+  </si>
+  <si>
+    <t>ICSE - X - Maths</t>
+  </si>
+  <si>
+    <t>ICSE - X - Physics</t>
+  </si>
+  <si>
+    <t>ICSE - X - Chemistry</t>
+  </si>
+  <si>
+    <t>ICSE - X - Biology</t>
+  </si>
+  <si>
+    <t>ICSE - IX - Maths</t>
+  </si>
+  <si>
+    <t>ICSE - IX - Physics</t>
+  </si>
+  <si>
+    <t>ICSE - IX - Chemistry</t>
+  </si>
+  <si>
+    <t>ICSE - IX - Biology</t>
+  </si>
+  <si>
+    <t>ICSE - VIII - Maths</t>
+  </si>
+  <si>
+    <t>ICSE - VIII - Physics</t>
+  </si>
+  <si>
+    <t>ICSE - VIII - Chemistry</t>
+  </si>
+  <si>
+    <t>ICSE - VIII - Biology</t>
+  </si>
+  <si>
+    <t>WB - X - Physical Science</t>
+  </si>
+  <si>
+    <t>WB - X - Life Science</t>
+  </si>
+  <si>
+    <t>WB - X - Maths</t>
+  </si>
+  <si>
+    <t>WB - IX - Physical Science</t>
+  </si>
+  <si>
+    <t>WB - IX - Life Science</t>
+  </si>
+  <si>
+    <t>WB - IX - Maths</t>
+  </si>
+  <si>
+    <t>WB - VIII - Physical Science</t>
+  </si>
+  <si>
+    <t>WB - VIII - Maths</t>
+  </si>
+  <si>
+    <t>CBSE - X - Maths</t>
+  </si>
+  <si>
+    <t>CBSE - X - Science, Physics</t>
+  </si>
+  <si>
+    <t>CBSE - X - Science, Chemistry</t>
+  </si>
+  <si>
+    <t>CBSE - X - Science, Biology</t>
+  </si>
+  <si>
+    <t>CBSE - IX - Maths</t>
+  </si>
+  <si>
+    <t>CBSE - IX - Science, Physics</t>
+  </si>
+  <si>
+    <t>CBSE - IX - Science, Chemistry</t>
+  </si>
+  <si>
+    <t>CBSE - IX - Science, Biology</t>
+  </si>
+  <si>
+    <t>CBSE - VIII - Maths</t>
+  </si>
+  <si>
+    <t>CBSE - VIII - Science - Physics, Chem</t>
+  </si>
+  <si>
+    <t>CBSE - VIII - Science, Biology</t>
+  </si>
+  <si>
+    <t>Sujata Mukherjee</t>
+  </si>
+  <si>
+    <t>Debolina Sen</t>
+  </si>
+  <si>
+    <t>ISC - XII - English</t>
+  </si>
+  <si>
+    <t>ISC - XII - Bengali</t>
+  </si>
+  <si>
+    <t>ISC - XII - Hindi</t>
+  </si>
+  <si>
+    <t>ISC - XII - History</t>
+  </si>
+  <si>
+    <t>ISC - XII - Geography</t>
+  </si>
+  <si>
+    <t>ISC - XII - Political Science</t>
+  </si>
+  <si>
+    <t>ISC - XII - Sociology</t>
+  </si>
+  <si>
+    <t>ISC - XII - Philosophy</t>
+  </si>
+  <si>
+    <t>ISC - XII - Psychology</t>
+  </si>
+  <si>
+    <t>ISC - XI - English</t>
+  </si>
+  <si>
+    <t>ISC - XI - Bengali</t>
+  </si>
+  <si>
+    <t>ISC - XI - Hindi</t>
+  </si>
+  <si>
+    <t>ISC - XI - History</t>
+  </si>
+  <si>
+    <t>ISC - XI - Geography</t>
+  </si>
+  <si>
+    <t>ISC - XI - Political Science</t>
+  </si>
+  <si>
+    <t>ISC - XI - Sociology</t>
+  </si>
+  <si>
+    <t>ISC - XI - Philosophy</t>
+  </si>
+  <si>
+    <t>ISC - XI - Psychology</t>
+  </si>
+  <si>
+    <t>ICSE - X - English</t>
+  </si>
+  <si>
+    <t>ICSE - X - Bengali</t>
+  </si>
+  <si>
+    <t>ICSE - X - Hindi</t>
+  </si>
+  <si>
+    <t>ICSE - X - Geography</t>
+  </si>
+  <si>
+    <t>ICSE - X - EVS</t>
+  </si>
+  <si>
+    <t>ICSE - X - Hist Civics</t>
+  </si>
+  <si>
+    <t>ICSE - IX - English</t>
+  </si>
+  <si>
+    <t>ICSE - IX - Bengali</t>
+  </si>
+  <si>
+    <t>ICSE - IX - Hindi</t>
+  </si>
+  <si>
+    <t>ICSE - IX - Geography</t>
+  </si>
+  <si>
+    <t>ICSE - IX - EVS</t>
+  </si>
+  <si>
+    <t>ICSE - IX - Hist Civics</t>
+  </si>
+  <si>
+    <t>ICSE - VIII - English</t>
+  </si>
+  <si>
+    <t>ICSE - VIII - Bengali</t>
+  </si>
+  <si>
+    <t>ICSE - VIII - Hindi</t>
+  </si>
+  <si>
+    <t>ICSE - VIII - Geography</t>
+  </si>
+  <si>
+    <t>ICSE - VIII - EVS</t>
+  </si>
+  <si>
+    <t>ICSE - VIII - Hist Civics</t>
+  </si>
+  <si>
+    <t>WB - XII - English</t>
+  </si>
+  <si>
+    <t>WB - XII - Bengali</t>
+  </si>
+  <si>
+    <t>WB - XII - Hindi</t>
+  </si>
+  <si>
+    <t>WB - XII - History</t>
+  </si>
+  <si>
+    <t>WB - XII - Geography</t>
+  </si>
+  <si>
+    <t>WB - XII - Political Science</t>
+  </si>
+  <si>
+    <t>WB - XII - Sociology</t>
+  </si>
+  <si>
+    <t>WB - XII - Philosophy</t>
+  </si>
+  <si>
+    <t>WB - XII - Psychology</t>
+  </si>
+  <si>
+    <t>WB - XI - English</t>
+  </si>
+  <si>
+    <t>WB - XI - Bengali</t>
+  </si>
+  <si>
+    <t>WB - XI - Hindi</t>
+  </si>
+  <si>
+    <t>WB - XI - History</t>
+  </si>
+  <si>
+    <t>WB - XI - Geography</t>
+  </si>
+  <si>
+    <t>WB - XI - Political Science</t>
+  </si>
+  <si>
+    <t>WB - XI - Sociology</t>
+  </si>
+  <si>
+    <t>WB - XI - Philosophy</t>
+  </si>
+  <si>
+    <t>WB - XI - Psychology</t>
+  </si>
+  <si>
+    <t>WB - X - English</t>
+  </si>
+  <si>
+    <t>WB - X - Bengali</t>
+  </si>
+  <si>
+    <t>WB - X - History</t>
+  </si>
+  <si>
+    <t>WB - X - Hindi</t>
+  </si>
+  <si>
+    <t>WB - X - Geography</t>
+  </si>
+  <si>
+    <t>WB - IX - English</t>
+  </si>
+  <si>
+    <t>WB - IX - Bengali</t>
+  </si>
+  <si>
+    <t>WB - IX - Hindi</t>
+  </si>
+  <si>
+    <t>WB - IX - History</t>
+  </si>
+  <si>
+    <t>WB - IX - Geography</t>
+  </si>
+  <si>
+    <t>WB - VIII - English</t>
+  </si>
+  <si>
+    <t>WB - VIII - Bengali</t>
+  </si>
+  <si>
+    <t>WB - VIII - Hindi</t>
+  </si>
+  <si>
+    <t>WB - VIII - History</t>
+  </si>
+  <si>
+    <t>WB - VIII - Geography</t>
+  </si>
+  <si>
+    <t>CBSE - XII - English</t>
+  </si>
+  <si>
+    <t>CBSE - XII - Bengali</t>
+  </si>
+  <si>
+    <t>CBSE - XII - Hindi</t>
+  </si>
+  <si>
+    <t>CBSE - XII - History</t>
+  </si>
+  <si>
+    <t>CBSE - XII - Geography</t>
+  </si>
+  <si>
+    <t>CBSE - XII - Political Science</t>
+  </si>
+  <si>
+    <t>CBSE - XII - Sociology</t>
+  </si>
+  <si>
+    <t>CBSE - XII - Philosophy</t>
+  </si>
+  <si>
+    <t>CBSE - XI - English</t>
+  </si>
+  <si>
+    <t>CBSE - XI - Bengali</t>
+  </si>
+  <si>
+    <t>CBSE - XI - Hindi</t>
+  </si>
+  <si>
+    <t>CBSE - XI - History</t>
+  </si>
+  <si>
+    <t>CBSE - XI - Geography</t>
+  </si>
+  <si>
+    <t>CBSE - XI - Political Science</t>
+  </si>
+  <si>
+    <t>CBSE - XI - Sociology</t>
+  </si>
+  <si>
+    <t>CBSE - XI - Philosophy</t>
+  </si>
+  <si>
+    <t>CBSE - X - English</t>
+  </si>
+  <si>
+    <t>CBSE - X - Bengali</t>
+  </si>
+  <si>
+    <t>CBSE - X - Hindi</t>
+  </si>
+  <si>
+    <t>CBSE - X - SST - Hist, Geog, Eco, Civics</t>
+  </si>
+  <si>
+    <t>CBSE - IX - English</t>
+  </si>
+  <si>
+    <t>CBSE - IX - Bengali</t>
+  </si>
+  <si>
+    <t>CBSE - IX - Hindi</t>
+  </si>
+  <si>
+    <t>CBSE - IX - SST - Hist, Geog, Eco, Civics</t>
+  </si>
+  <si>
+    <t>CBSE - VIII - English</t>
+  </si>
+  <si>
+    <t>CBSE - VIII - Bengali</t>
+  </si>
+  <si>
+    <t>CBSE - VIII - Hindi</t>
+  </si>
+  <si>
+    <t>CBSE - VIII - SST - Hist, Geog, Eco, Civics</t>
+  </si>
+  <si>
+    <t>IELTS</t>
+  </si>
+  <si>
+    <t>TOEFL</t>
+  </si>
+  <si>
+    <t>PTE</t>
+  </si>
+  <si>
+    <t>GRE</t>
+  </si>
+  <si>
+    <t>ISC - XII - Commercial Study</t>
+  </si>
+  <si>
+    <t>ISC - XII - Economics</t>
+  </si>
+  <si>
+    <t>ISC - XII - Business Studies</t>
+  </si>
+  <si>
+    <t>ISC - XII - Maths (Comm)</t>
+  </si>
+  <si>
+    <t>ISC - XI - Accounting</t>
+  </si>
+  <si>
+    <t>ISC - XI - Commercial Study</t>
+  </si>
+  <si>
+    <t>ISC - XI - Economics</t>
+  </si>
+  <si>
+    <t>ISC - XI - Business Studies</t>
+  </si>
+  <si>
+    <t>ISC - XI - Maths (Comm)</t>
+  </si>
+  <si>
+    <t>ICSE - X - Commercial Study</t>
+  </si>
+  <si>
+    <t>ICSE - X - Economics</t>
+  </si>
+  <si>
+    <t>ICSE - IX - Commercial Study</t>
+  </si>
+  <si>
+    <t>ICSE - IX - Economics</t>
+  </si>
+  <si>
+    <t>WB - XII - Accounting</t>
+  </si>
+  <si>
+    <t>WB - XII - Business Studies</t>
+  </si>
+  <si>
+    <t>WB - XII - Costing &amp; Taxation</t>
+  </si>
+  <si>
+    <t>WB - XII - Business Law</t>
+  </si>
+  <si>
+    <t>WB - XII - Maths (Comm)</t>
+  </si>
+  <si>
+    <t>WB - XII - Stats</t>
+  </si>
+  <si>
+    <t>WB - XII - Economics</t>
+  </si>
+  <si>
+    <t>WB - XII - Eco Geography</t>
+  </si>
+  <si>
+    <t>WB - XI - Accounting</t>
+  </si>
+  <si>
+    <t>WB - XI - Business Studies</t>
+  </si>
+  <si>
+    <t>WB - XI - Costing &amp; Taxation</t>
+  </si>
+  <si>
+    <t>WB - XI - Business Law</t>
+  </si>
+  <si>
+    <t>WB - XI - Maths (Comm)</t>
+  </si>
+  <si>
+    <t>WB - XI - Stats</t>
+  </si>
+  <si>
+    <t>WB - XI - Economics</t>
+  </si>
+  <si>
+    <t>WB - XI - Eco Geography</t>
+  </si>
+  <si>
+    <t>WB - X - Book Keeping</t>
+  </si>
+  <si>
+    <t>WB - X - Business Studies</t>
+  </si>
+  <si>
+    <t>WB - IX - Book Keeping</t>
+  </si>
+  <si>
+    <t>WB - IX - Business Studies</t>
+  </si>
+  <si>
+    <t>CBSE - XII - Accounting</t>
+  </si>
+  <si>
+    <t>CBSE - XII - Economics</t>
+  </si>
+  <si>
+    <t>CBSE - XII - Business Studies</t>
+  </si>
+  <si>
+    <t>CBSE - XII - Info Practices</t>
+  </si>
+  <si>
+    <t>CBSE - XII - Legal Studies</t>
+  </si>
+  <si>
+    <t>CBSE - XII - Maths (Comm)</t>
+  </si>
+  <si>
+    <t>CBSE - XI - Accounting</t>
+  </si>
+  <si>
+    <t>CBSE - XI - Economics</t>
+  </si>
+  <si>
+    <t>CBSE - XI - Business Studies</t>
+  </si>
+  <si>
+    <t>CBSE - XI - Info Practices</t>
+  </si>
+  <si>
+    <t>CBSE - XI - Legal Studies</t>
+  </si>
+  <si>
+    <t>CBSE - XI - Maths (Comm)</t>
+  </si>
+  <si>
+    <t>B.Com. (H) - Adv Accounting I</t>
+  </si>
+  <si>
+    <t>B.Com. (H) - Adv Accounting II</t>
+  </si>
+  <si>
+    <t>B.Com. (H) - Adv Accounting III</t>
+  </si>
+  <si>
+    <t>B.Com. (H) - Cost &amp; Mgmt Ac I</t>
+  </si>
+  <si>
+    <t>B.Com. (H) - Cost &amp; Mgmt Ac II</t>
+  </si>
+  <si>
+    <t>B.Com. (H) - In/Direct Tax I</t>
+  </si>
+  <si>
+    <t>B.Com. (H) - In/Direct Tax II</t>
+  </si>
+  <si>
+    <t>B.Com. (H) - Financial Mgmt</t>
+  </si>
+  <si>
+    <t>B.Com. (H) - Fin Rpt &amp; Stmt Anlys</t>
+  </si>
+  <si>
+    <t>B.Com. (H) - Audit &amp; Assurance</t>
+  </si>
+  <si>
+    <t>B.Com. - Micro Economics</t>
+  </si>
+  <si>
+    <t>B.Com. - Macro Economics</t>
+  </si>
+  <si>
+    <t>B.Com. - Development Eco</t>
+  </si>
+  <si>
+    <t>B.Com. - Business Management I</t>
+  </si>
+  <si>
+    <t>B.Com. - Business Management II</t>
+  </si>
+  <si>
+    <t>B.Com. - HRM</t>
+  </si>
+  <si>
+    <t>B.Com. - Business Mathematics</t>
+  </si>
+  <si>
+    <t>B.Com. - Business Statistics</t>
+  </si>
+  <si>
+    <t>B.Com. - Business Law</t>
+  </si>
+  <si>
+    <t>B.Com. - Company Law</t>
+  </si>
+  <si>
+    <t>B.Com. - Enterpreneurship</t>
+  </si>
+  <si>
+    <t>B.Com. - Environmantal Studies</t>
+  </si>
+  <si>
+    <t>B.Com. - Business Comm</t>
+  </si>
+  <si>
+    <t>B.Com. - E-Commerce</t>
+  </si>
+  <si>
+    <t>B.Com. - IT App in Business</t>
+  </si>
+  <si>
+    <t>B.Com. - Comp Ac &amp; Tax eFiling</t>
+  </si>
+  <si>
+    <t>B.B.A. - English</t>
+  </si>
+  <si>
+    <t>B.B.A. - Business Comm</t>
+  </si>
+  <si>
+    <t>B.B.A. - Essentials of Math</t>
+  </si>
+  <si>
+    <t>B.B.A. - Essentials of Stats</t>
+  </si>
+  <si>
+    <t>B.B.A. - Advanced Math &amp; Stats</t>
+  </si>
+  <si>
+    <t>B.B.A. - Computer Applications</t>
+  </si>
+  <si>
+    <t>B.B.A. - Micro Economics</t>
+  </si>
+  <si>
+    <t>B.B.A. - Macro Economics</t>
+  </si>
+  <si>
+    <t>B.B.A. - Organizational Behavior</t>
+  </si>
+  <si>
+    <t>B.B.A. - Social Structure &amp; Ethics</t>
+  </si>
+  <si>
+    <t>B.B.A. - Principles of Mgmt</t>
+  </si>
+  <si>
+    <t>B.B.A. - Managerial Economics</t>
+  </si>
+  <si>
+    <t>B.B.A. - Business Laws</t>
+  </si>
+  <si>
+    <t>B.B.A. - Financial Accounting</t>
+  </si>
+  <si>
+    <t>B.B.A. - Environment Studies</t>
+  </si>
+  <si>
+    <t>B.B.A. - Prod &amp; Materials Mgmt</t>
+  </si>
+  <si>
+    <t>B.B.A. - Mgmt Info System</t>
+  </si>
+  <si>
+    <t>B.B.A. - Cost Accounting</t>
+  </si>
+  <si>
+    <t>B.B.A. - Marketing Management</t>
+  </si>
+  <si>
+    <t>B.B.A. - HRM</t>
+  </si>
+  <si>
+    <t>B.B.A. - Financial Management</t>
+  </si>
+  <si>
+    <t>B.B.A. - Sales &amp; Distribn Mgmt</t>
+  </si>
+  <si>
+    <t>B.B.A. - HR Development</t>
+  </si>
+  <si>
+    <t>B.B.A. - Enterpreneurship Dev</t>
+  </si>
+  <si>
+    <t>B.B.A. - Research Methodology</t>
+  </si>
+  <si>
+    <t>B.B.A. - Mgmt Accounting</t>
+  </si>
+  <si>
+    <t>B.B.A. - Ad &amp; Sales Promotion</t>
+  </si>
+  <si>
+    <t>B.B.A. - Industrial Relations</t>
+  </si>
+  <si>
+    <t>B.B.A. - Public Service Mgmt</t>
+  </si>
+  <si>
+    <t>B.B.A. - Project and Viva</t>
+  </si>
+  <si>
+    <t>C.A. - Found - Accountancy</t>
+  </si>
+  <si>
+    <t>C.A. - Found - Biz laws &amp; Corspndnce</t>
+  </si>
+  <si>
+    <t>C.A. - Found - Biz Math &amp; Stat</t>
+  </si>
+  <si>
+    <t>C.A. - Found - Eco &amp; Comm Knwldge</t>
+  </si>
+  <si>
+    <t>C.A. - Inter - Accountancy</t>
+  </si>
+  <si>
+    <t>C.A. - Inter - Corp &amp; other Laws</t>
+  </si>
+  <si>
+    <t>C.A. - Inter - Cost &amp; Mgmt Ac</t>
+  </si>
+  <si>
+    <t>C.A. - Inter - Tax</t>
+  </si>
+  <si>
+    <t>C.A. - Inter - Audit</t>
+  </si>
+  <si>
+    <t>C.A. - Inter - Adv Ac</t>
+  </si>
+  <si>
+    <t>C.A. - Inter - EIS &amp; Strategic Mgmt</t>
+  </si>
+  <si>
+    <t>C.A. - Inter - Fin Mgmt &amp; Eco</t>
+  </si>
+  <si>
+    <t>C.A. - Final - Fin Reporting</t>
+  </si>
+  <si>
+    <t>C.A. - Final - Strategic Fin Mgmt</t>
+  </si>
+  <si>
+    <t>C.A. - Final - Audit &amp; Ethics</t>
+  </si>
+  <si>
+    <t>C.A. - Final - Corporate &amp; Eco Laws</t>
+  </si>
+  <si>
+    <t>C.A. - Final - Strategic Cost &amp; Perf Eval</t>
+  </si>
+  <si>
+    <t>C.A. - Final - Risk, Cptl Mkt, Glbl FnRpt</t>
+  </si>
+  <si>
+    <t>C.A. - Final - Direct Tax &amp; Intrtnl Tax</t>
+  </si>
+  <si>
+    <t>C.A. - Final - Indirect Tax laws</t>
+  </si>
+  <si>
+    <t>C.M.A. - Found - Bizz laws &amp; comm</t>
+  </si>
+  <si>
+    <t>C.M.A. - Found - Fin &amp; Cost Ac</t>
+  </si>
+  <si>
+    <t>C.M.A. - Found - Bizz math &amp; Stat</t>
+  </si>
+  <si>
+    <t>C.M.A. - Found - Bizz Eco &amp; Math</t>
+  </si>
+  <si>
+    <t>C.M.A. - Inter - Biz Law &amp; Ethics</t>
+  </si>
+  <si>
+    <t>C.M.A. - Inter - Fin Ac</t>
+  </si>
+  <si>
+    <t>C.M.A. - Inter - Direct Indirect Tax</t>
+  </si>
+  <si>
+    <t>C.M.A. - Inter - Cost AC</t>
+  </si>
+  <si>
+    <t>C.M.A. - Inter - Ops &amp; Mgmt Strategic</t>
+  </si>
+  <si>
+    <t>C.M.A. - Inter - Corporate AC &amp; Auditing</t>
+  </si>
+  <si>
+    <t>C.M.A. - Inter - Fin Mgmt-Data Anltcs</t>
+  </si>
+  <si>
+    <t>C.M.A. - Inter - Mgmt AC</t>
+  </si>
+  <si>
+    <t>C.M.A. - Final - Corporate &amp; Eco Laws</t>
+  </si>
+  <si>
+    <t>C.M.A. - Final - Strategic Fin Mgmt</t>
+  </si>
+  <si>
+    <t>C.M.A. - Final - Direct &amp; Intrntnl Tax</t>
+  </si>
+  <si>
+    <t>C.M.A. - Final - Strategic Cost Mgmt</t>
+  </si>
+  <si>
+    <t>C.M.A. - Final - Cost &amp; Mgmt Audit</t>
+  </si>
+  <si>
+    <t>C.M.A. - Final - Corporate Fin Reporting</t>
+  </si>
+  <si>
+    <t>C.M.A. - Final - Indirect Tax</t>
+  </si>
+  <si>
+    <t>C.M.A. - Final - Strt Perf Mgmt &amp; Eval</t>
+  </si>
+  <si>
+    <t>C.S. - Found - Biz Env &amp; Law</t>
+  </si>
+  <si>
+    <t>C.S. - Found - Biz Mgmt, Ethics, Entsp</t>
+  </si>
+  <si>
+    <t>C.S. - Found - Biz Eco</t>
+  </si>
+  <si>
+    <t>C.S. - Found - Ac &amp; Audit</t>
+  </si>
+  <si>
+    <t>C.S. - Inter - General Law</t>
+  </si>
+  <si>
+    <t>C.S. - Inter - Company Law</t>
+  </si>
+  <si>
+    <t>C.S. - Inter - Set up of Biz &amp; Closure</t>
+  </si>
+  <si>
+    <t>C.S. - Inter - Tax Law</t>
+  </si>
+  <si>
+    <t>C.S. - Inter - Corporate &amp; Mgmt AC</t>
+  </si>
+  <si>
+    <t>C.S. - Inter - Securities Law &amp; Cptl Mkt</t>
+  </si>
+  <si>
+    <t>C.S. - Inter - Eco, Biz &amp; Comm Law</t>
+  </si>
+  <si>
+    <t>C.S. - Inter - Fin &amp; Strategic Mgmt</t>
+  </si>
+  <si>
+    <t>C.S. - Final - Govrnc, Risk Mgmt, Ethics</t>
+  </si>
+  <si>
+    <t>C.S. - Final - Adv Tax laws</t>
+  </si>
+  <si>
+    <t>C.S. - Final - Draft, Pleed &amp; Apprncs</t>
+  </si>
+  <si>
+    <t>C.S. - Final - Secretl Audit, Due Delgnc</t>
+  </si>
+  <si>
+    <t>C.S. - Final - Corp Restrct, Winding Up</t>
+  </si>
+  <si>
+    <t>C.S. - Final - Resln of Corp Disputes</t>
+  </si>
+  <si>
+    <t>C.S. - Final - Corp Fund &amp; Stock Listing</t>
+  </si>
+  <si>
+    <t>C.S. - Final - Multi Discp Case Studies</t>
+  </si>
+  <si>
+    <t>C.S. - Final - Intellectual Prpt Rights</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-1 - Ethical &amp; Prof Standards</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-1 - Quantitive Methods</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-1 - Economics</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-1 - Fin Statement Analysis</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-1 - Corporate Issuers</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-1 - Equity Investments</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-1 - Fixed Income</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-1 - Derivatives</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-1 - Alternative Investments</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-1 - Portrfolio Mgmt &amp; Wealth</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-2 - Ethical &amp; Prof Standards</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-2 - Quantitive Methods</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-2 - Economics</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-2 - Fin Statement Analysis</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-2 - Corporate Issuers</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-2 - Equity Investments</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-2 - Fixed Income</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-2 - Derivatives</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-2 - Alternative Investments</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-2 - Portrfolio Mgmt-Wealth</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-3 - Ethical &amp; Prof Standards</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-3 - Quantitive Methods</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-3 - Economics</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-3 - Fin Statement Analysis</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-3 - Corporate Issuers</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-3 - Equity Investments</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-3 - Fixed Income</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-3 - Derivatives</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-3 - Alternative Investments</t>
+  </si>
+  <si>
+    <t>C.F.A. - L-3 - Portrfolio Mgmt-Wealth</t>
+  </si>
+  <si>
+    <t>Spoken English</t>
+  </si>
+  <si>
+    <t>Advanced Grooming</t>
+  </si>
+  <si>
+    <t>Classroom2Boardroom</t>
+  </si>
+  <si>
+    <t>Employee to Manager</t>
+  </si>
+  <si>
+    <t>Executive Training</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Oxygen"/>
+      </rPr>
+      <t xml:space="preserve">ISC </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Oxygen"/>
+      </rPr>
+      <t>- XII - Accounting</t>
+    </r>
+  </si>
+  <si>
+    <t>CBSE XI &amp; XII notes and animated video --&gt; Rs 17,000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,30 +1138,95 @@
       <name val="Oxygen"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
       <name val="Oxygen"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0563C1"/>
+      <b/>
+      <sz val="9"/>
+      <name val="Oxygen"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Oxygen"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -170,7 +1235,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -187,24 +1252,51 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -511,56 +1603,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.21875" style="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="85" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>7</v>
+      <c r="B3" s="21" t="s">
+        <v>10</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -568,19 +1665,15 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="B4" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -591,19 +1684,15 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="B5" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -614,9 +1703,13 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
+    <row r="6" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>150</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -628,9 +1721,13 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
+    <row r="7" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>151</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -642,9 +1739,13 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
+    <row r="8" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>152</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -657,9 +1758,13 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
+    <row r="9" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>153</v>
+      </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -672,9 +1777,13 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
+    <row r="10" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>154</v>
+      </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -687,9 +1796,13 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
+    <row r="11" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>155</v>
+      </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -702,9 +1815,13 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
+    <row r="12" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>156</v>
+      </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -717,9 +1834,13 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
+    <row r="13" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>157</v>
+      </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -732,9 +1853,13 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
+    <row r="14" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>158</v>
+      </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -747,9 +1872,13 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
+    <row r="15" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>12</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>159</v>
+      </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -762,9 +1891,13 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
+    <row r="16" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>13</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>160</v>
+      </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -777,9 +1910,13 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
+    <row r="17" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>161</v>
+      </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -792,9 +1929,13 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
+    <row r="18" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>15</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>162</v>
+      </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -807,9 +1948,13 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
+    <row r="19" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>16</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>163</v>
+      </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -822,9 +1967,13 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
+    <row r="20" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>17</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>164</v>
+      </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -837,9 +1986,13 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
+    <row r="21" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>18</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>165</v>
+      </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -852,9 +2005,13 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
+    <row r="22" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>19</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>166</v>
+      </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -867,9 +2024,13 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
+    <row r="23" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>20</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>167</v>
+      </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -882,9 +2043,13 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
+    <row r="24" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>21</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>168</v>
+      </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -897,9 +2062,13 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
+    <row r="25" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>22</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>169</v>
+      </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -912,9 +2081,13 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
+    <row r="26" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>23</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>170</v>
+      </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -927,9 +2100,13 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
+    <row r="27" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>24</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -942,9 +2119,13 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3"/>
+    <row r="28" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>25</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>172</v>
+      </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -957,9 +2138,13 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3"/>
+    <row r="29" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>26</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>173</v>
+      </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -972,9 +2157,13 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="2"/>
-      <c r="B30" s="3"/>
+    <row r="30" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>27</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>174</v>
+      </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -987,25 +2176,1389 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
     </row>
+    <row r="31" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>28</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>29</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>30</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>31</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>32</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>33</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>34</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>35</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>36</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>37</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>38</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>39</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>40</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>41</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>42</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>43</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>44</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>45</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>46</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>47</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>48</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>49</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>50</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>51</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>52</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>53</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>54</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>55</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>56</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>57</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>58</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>59</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>60</v>
+      </c>
+      <c r="B63" s="23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>61</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>62</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>63</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>64</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>65</v>
+      </c>
+      <c r="B68" s="23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>66</v>
+      </c>
+      <c r="B69" s="23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>67</v>
+      </c>
+      <c r="B70" s="23" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>68</v>
+      </c>
+      <c r="B71" s="23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>69</v>
+      </c>
+      <c r="B72" s="23" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>70</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>71</v>
+      </c>
+      <c r="B74" s="23" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <v>72</v>
+      </c>
+      <c r="B75" s="23" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <v>73</v>
+      </c>
+      <c r="B76" s="23" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <v>74</v>
+      </c>
+      <c r="B77" s="23" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <v>75</v>
+      </c>
+      <c r="B78" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <v>76</v>
+      </c>
+      <c r="B79" s="23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <v>77</v>
+      </c>
+      <c r="B80" s="23" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <v>78</v>
+      </c>
+      <c r="B81" s="23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <v>79</v>
+      </c>
+      <c r="B82" s="23" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <v>80</v>
+      </c>
+      <c r="B83" s="23" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
+        <v>81</v>
+      </c>
+      <c r="B84" s="23" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <v>82</v>
+      </c>
+      <c r="B85" s="23" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <v>83</v>
+      </c>
+      <c r="B86" s="23" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
+        <v>84</v>
+      </c>
+      <c r="B87" s="23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
+        <v>85</v>
+      </c>
+      <c r="B88" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
+        <v>86</v>
+      </c>
+      <c r="B89" s="23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
+        <v>87</v>
+      </c>
+      <c r="B90" s="23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
+        <v>88</v>
+      </c>
+      <c r="B91" s="23" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
+        <v>89</v>
+      </c>
+      <c r="B92" s="23" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
+        <v>90</v>
+      </c>
+      <c r="B93" s="23" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
+        <v>91</v>
+      </c>
+      <c r="B94" s="23" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
+        <v>92</v>
+      </c>
+      <c r="B95" s="23" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
+        <v>93</v>
+      </c>
+      <c r="B96" s="23" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
+        <v>94</v>
+      </c>
+      <c r="B97" s="23" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
+        <v>95</v>
+      </c>
+      <c r="B98" s="23" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
+        <v>96</v>
+      </c>
+      <c r="B99" s="23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
+        <v>97</v>
+      </c>
+      <c r="B100" s="23" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
+        <v>98</v>
+      </c>
+      <c r="B101" s="23" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="2">
+        <v>99</v>
+      </c>
+      <c r="B102" s="23" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="2">
+        <v>100</v>
+      </c>
+      <c r="B103" s="23" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="2">
+        <v>101</v>
+      </c>
+      <c r="B104" s="23" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="2">
+        <v>102</v>
+      </c>
+      <c r="B105" s="23" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
+        <v>103</v>
+      </c>
+      <c r="B106" s="23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="2">
+        <v>104</v>
+      </c>
+      <c r="B107" s="23" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="2">
+        <v>105</v>
+      </c>
+      <c r="B108" s="23" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="2">
+        <v>106</v>
+      </c>
+      <c r="B109" s="23" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="2">
+        <v>107</v>
+      </c>
+      <c r="B110" s="23" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="2">
+        <v>108</v>
+      </c>
+      <c r="B111" s="23" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="2">
+        <v>109</v>
+      </c>
+      <c r="B112" s="23" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="2">
+        <v>110</v>
+      </c>
+      <c r="B113" s="23" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="2">
+        <v>111</v>
+      </c>
+      <c r="B114" s="23" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="2">
+        <v>112</v>
+      </c>
+      <c r="B115" s="23" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="2">
+        <v>113</v>
+      </c>
+      <c r="B116" s="23" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="2">
+        <v>114</v>
+      </c>
+      <c r="B117" s="23" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="2">
+        <v>115</v>
+      </c>
+      <c r="B118" s="23" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="2">
+        <v>116</v>
+      </c>
+      <c r="B119" s="23" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="2">
+        <v>117</v>
+      </c>
+      <c r="B120" s="23" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="2">
+        <v>118</v>
+      </c>
+      <c r="B121" s="23" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="2">
+        <v>119</v>
+      </c>
+      <c r="B122" s="23" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="2">
+        <v>120</v>
+      </c>
+      <c r="B123" s="23" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="2">
+        <v>121</v>
+      </c>
+      <c r="B124" s="23" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="2">
+        <v>122</v>
+      </c>
+      <c r="B125" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="2">
+        <v>123</v>
+      </c>
+      <c r="B126" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="2">
+        <v>124</v>
+      </c>
+      <c r="B127" s="23" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="2">
+        <v>125</v>
+      </c>
+      <c r="B128" s="23" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="2">
+        <v>126</v>
+      </c>
+      <c r="B129" s="23" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="2">
+        <v>127</v>
+      </c>
+      <c r="B130" s="23" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="2">
+        <v>128</v>
+      </c>
+      <c r="B131" s="23" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="2">
+        <v>129</v>
+      </c>
+      <c r="B132" s="23" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="2">
+        <v>130</v>
+      </c>
+      <c r="B133" s="23" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="2">
+        <v>131</v>
+      </c>
+      <c r="B134" s="23" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="2">
+        <v>132</v>
+      </c>
+      <c r="B135" s="23" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="2">
+        <v>133</v>
+      </c>
+      <c r="B136" s="23" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="2">
+        <v>134</v>
+      </c>
+      <c r="B137" s="23" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="2">
+        <v>135</v>
+      </c>
+      <c r="B138" s="23" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="2">
+        <v>136</v>
+      </c>
+      <c r="B139" s="23" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="2">
+        <v>137</v>
+      </c>
+      <c r="B140" s="23" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="2">
+        <v>138</v>
+      </c>
+      <c r="B141" s="23" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="2">
+        <v>139</v>
+      </c>
+      <c r="B142" s="23" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="2">
+        <v>140</v>
+      </c>
+      <c r="B143" s="23" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="2">
+        <v>141</v>
+      </c>
+      <c r="B144" s="23" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="2">
+        <v>142</v>
+      </c>
+      <c r="B145" s="23" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="2">
+        <v>143</v>
+      </c>
+      <c r="B146" s="23" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="2">
+        <v>144</v>
+      </c>
+      <c r="B147" s="23" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="2">
+        <v>145</v>
+      </c>
+      <c r="B148" s="23" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="2">
+        <v>146</v>
+      </c>
+      <c r="B149" s="23" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="2">
+        <v>147</v>
+      </c>
+      <c r="B150" s="23" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="2">
+        <v>148</v>
+      </c>
+      <c r="B151" s="23" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="2">
+        <v>149</v>
+      </c>
+      <c r="B152" s="23" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="2">
+        <v>150</v>
+      </c>
+      <c r="B153" s="23" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="2">
+        <v>151</v>
+      </c>
+      <c r="B154" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="2">
+        <v>152</v>
+      </c>
+      <c r="B155" s="23" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="2">
+        <v>153</v>
+      </c>
+      <c r="B156" s="23" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="2">
+        <v>154</v>
+      </c>
+      <c r="B157" s="23" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="2">
+        <v>155</v>
+      </c>
+      <c r="B158" s="23" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="2">
+        <v>156</v>
+      </c>
+      <c r="B159" s="23" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="2">
+        <v>157</v>
+      </c>
+      <c r="B160" s="23" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="2">
+        <v>158</v>
+      </c>
+      <c r="B161" s="23" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="2">
+        <v>159</v>
+      </c>
+      <c r="B162" s="23" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="2">
+        <v>160</v>
+      </c>
+      <c r="B163" s="23" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="2">
+        <v>161</v>
+      </c>
+      <c r="B164" s="23" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="2">
+        <v>162</v>
+      </c>
+      <c r="B165" s="23" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="2">
+        <v>163</v>
+      </c>
+      <c r="B166" s="23" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="2">
+        <v>164</v>
+      </c>
+      <c r="B167" s="23" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="2">
+        <v>165</v>
+      </c>
+      <c r="B168" s="23" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="2">
+        <v>166</v>
+      </c>
+      <c r="B169" s="23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="2">
+        <v>167</v>
+      </c>
+      <c r="B170" s="23" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="2">
+        <v>168</v>
+      </c>
+      <c r="B171" s="23" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="2">
+        <v>169</v>
+      </c>
+      <c r="B172" s="23" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="2">
+        <v>170</v>
+      </c>
+      <c r="B173" s="23" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="2">
+        <v>171</v>
+      </c>
+      <c r="B174" s="23" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="2">
+        <v>172</v>
+      </c>
+      <c r="B175" s="23" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="2">
+        <v>173</v>
+      </c>
+      <c r="B176" s="23" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="2">
+        <v>174</v>
+      </c>
+      <c r="B177" s="23" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="2">
+        <v>175</v>
+      </c>
+      <c r="B178" s="23" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="2">
+        <v>176</v>
+      </c>
+      <c r="B179" s="23" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="2">
+        <v>177</v>
+      </c>
+      <c r="B180" s="23" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="2">
+        <v>178</v>
+      </c>
+      <c r="B181" s="23" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="2">
+        <v>179</v>
+      </c>
+      <c r="B182" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="2">
+        <v>180</v>
+      </c>
+      <c r="B183" s="23" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="2">
+        <v>181</v>
+      </c>
+      <c r="B184" s="23" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="2">
+        <v>182</v>
+      </c>
+      <c r="B185" s="23" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="2">
+        <v>183</v>
+      </c>
+      <c r="B186" s="23" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="2">
+        <v>184</v>
+      </c>
+      <c r="B187" s="23" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="2">
+        <v>185</v>
+      </c>
+      <c r="B188" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="2">
+        <v>186</v>
+      </c>
+      <c r="B189" s="23" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="2">
+        <v>187</v>
+      </c>
+      <c r="B190" s="23" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="2">
+        <v>188</v>
+      </c>
+      <c r="B191" s="23" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="2">
+        <v>189</v>
+      </c>
+      <c r="B192" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="2">
+        <v>190</v>
+      </c>
+      <c r="B193" s="23" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="2">
+        <v>191</v>
+      </c>
+      <c r="B194" s="23" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="2">
+        <v>192</v>
+      </c>
+      <c r="B195" s="23" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="2">
+        <v>193</v>
+      </c>
+      <c r="B196" s="23" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="2">
+        <v>194</v>
+      </c>
+      <c r="B197" s="23" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="2">
+        <v>195</v>
+      </c>
+      <c r="B198" s="23" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="2">
+        <v>196</v>
+      </c>
+      <c r="B199" s="23" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="2">
+        <v>197</v>
+      </c>
+      <c r="B200" s="23" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="2">
+        <v>198</v>
+      </c>
+      <c r="B201" s="23" t="s">
+        <v>345</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B4" sqref="B4:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.88671875" bestFit="1" customWidth="1"/>
@@ -1016,20 +3569,20 @@
     <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1038,311 +3591,1353 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="14.4" customHeight="1">
+    <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="14.4" customHeight="1">
+    <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="B6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="14.4" customHeight="1">
+    <row r="7" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="B7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="14.4" customHeight="1">
+    <row r="8" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="13"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="14.4" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" ht="14.4" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" ht="14.4" customHeight="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" ht="14.4" customHeight="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" ht="14.4" customHeight="1">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="C7" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>12</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>13</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>15</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>16</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>17</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>18</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>19</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>20</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>21</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>22</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>23</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>24</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>25</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>26</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>27</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>28</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>29</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>30</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>31</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>23</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>24</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>25</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>26</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>27</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>28</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>29</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>30</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>31</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>32</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>33</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>34</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>35</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>36</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>37</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>38</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>39</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>40</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>41</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>42</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>43</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>44</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>45</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>46</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>47</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>48</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>49</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>50</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>51</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>52</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>53</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>54</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>55</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>56</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>57</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>58</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>59</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>60</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>61</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>62</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>63</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>64</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>65</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>66</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>67</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>68</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>69</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>70</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>71</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>72</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>73</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>74</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>75</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>76</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>77</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>78</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>79</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>80</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>81</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>82</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>83</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>84</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>85</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>86</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>87</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>88</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>89</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>90</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>91</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>92</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>93</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>94</v>
+      </c>
+      <c r="B97" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>95</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>96</v>
+      </c>
+      <c r="B99" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>97</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>98</v>
+      </c>
+      <c r="B101" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>99</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="15"/>
+    </row>
+    <row r="108" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="15"/>
+    </row>
+    <row r="109" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>